--- a/DataDrivenAutomationProject/src/test/resources/excel/CertificationAppAdmin.xlsx
+++ b/DataDrivenAutomationProject/src/test/resources/excel/CertificationAppAdmin.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="TestData" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="48">
   <si>
     <t>Iteration</t>
   </si>
@@ -30,12 +30,6 @@
     <t>RunMode</t>
   </si>
   <si>
-    <t>Login1</t>
-  </si>
-  <si>
-    <t>Login2</t>
-  </si>
-  <si>
     <t>Chrome</t>
   </si>
   <si>
@@ -94,6 +88,78 @@
   </si>
   <si>
     <t>createValueTypeQue</t>
+  </si>
+  <si>
+    <t>TotalScore</t>
+  </si>
+  <si>
+    <t>ExamName</t>
+  </si>
+  <si>
+    <t>SourceSystemCode</t>
+  </si>
+  <si>
+    <t>ExamDuration</t>
+  </si>
+  <si>
+    <t>PassingScore</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>ExamAvailability</t>
+  </si>
+  <si>
+    <t>ExamProposeDate</t>
+  </si>
+  <si>
+    <t>Target Management Level</t>
+  </si>
+  <si>
+    <t>ReleaseNumber</t>
+  </si>
+  <si>
+    <t>Axis</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>TargetAudience</t>
+  </si>
+  <si>
+    <t>ExamMode</t>
+  </si>
+  <si>
+    <t>Test Online Exam_1</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>ENOVIA</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>3DS,VS,CSI,PC</t>
+  </si>
+  <si>
+    <t>GeoAvailability</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>TargetRoles</t>
+  </si>
+  <si>
+    <t>Quality Assurance Engineer</t>
+  </si>
+  <si>
+    <t>R2020.04</t>
   </si>
 </sst>
 </file>
@@ -454,366 +520,444 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="1" t="s">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>1</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>5</v>
-      </c>
-      <c r="B12" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>1</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="C16" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>4</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>0</v>
+      <c r="A22" s="1">
+        <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="D26" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>1</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>0</v>
+      <c r="A31" s="1">
+        <v>1</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>1</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -821,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,7 +976,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -840,50 +984,50 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
